--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Please contact DJI Support</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,26 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Compass Error Compass data error Please contact DJI Support .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Compass Error Compass data error</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Check and re-install battery</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,21 +787,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lower altitude immediately and return to home manually</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>10-17</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>12-14</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1062,26 +1062,26 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-10</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,37 +1121,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Check the USB connection with aircraft Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>4-18</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,17 +1246,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1312,21 +1312,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
+          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Error Compass data error</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1612,26 +1612,26 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Camera RCAM not connected Image quality affected</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,21 +1687,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,15 +1746,40 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>Aircraft unable to fly stably</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3-7</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>19</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>8-15</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/original_remove/rem4/67/incorrect_predictions_67.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Please contact DJI Support</t>
+          <t>Camera error</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,26 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please contact DJI Support .</t>
+          <t>Camera error AI Spot-Check failed Restart camera .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error</t>
+          <t>AI Spot-Check failed</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -571,12 +571,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Camera error</t>
+          <t>Restart camera</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>5-6</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -587,21 +587,21 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>AI Spot-Check failed</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -612,21 +612,21 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Camera error AI Spot-Check failed Restart camera .</t>
+          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Restart camera</t>
+          <t>Minimum RTH Altitude is 30m</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>5-6</t>
+          <t>7-11</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -637,21 +637,21 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Battery not installed properly</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -662,21 +662,21 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point Minimum RTH Altitude is 30m You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Return to home immediately</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7-11</t>
+          <t>4-7</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Battery not installed properly</t>
+          <t>Check and re-install battery</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -712,21 +712,21 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Battery not installed properly Return to home immediately Check and re-install battery .</t>
+          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Return to home immediately</t>
+          <t>Compass Stuck</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4-7</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -746,12 +746,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Compass Stuck</t>
+          <t>Restart Aircraft</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>2-3</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -771,12 +771,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Restart Aircraft</t>
+          <t>Contact DJI Support if this persists</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-3</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -787,21 +787,21 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Compass Stuck Restart Aircraft Contact DJI Support if this persists .</t>
+          <t>Strong wind warning Aircraft unable to return to home automatically Lower altitude immediately and return to home manually .</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this persists</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to return to home automatically</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-9</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -846,12 +846,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Aircraft unable to return to home automatically</t>
+          <t>Lower altitude immediately and return to home manually</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3-9</t>
+          <t>10-17</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -962,21 +962,21 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
+          <t>AirSense communication error Unable to display nearby manned aircraft and anti-collision warnings Fly with caution .</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Extra payload detected</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>12-14</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Max altitude and distance set</t>
+          <t>Extra payload detected</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1021,12 +1021,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Max altitude and distance set</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1037,21 +1037,21 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Failed to take off</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1062,26 +1062,26 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution .</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft</t>
+          <t>Extra payload detected Max altitude and distance set Fly with caution</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1096,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Contact DJI Support if this error persists after restarting</t>
+          <t>Failed to take off</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>10-18</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1121,37 +1121,37 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Check the USB connection with aircraft Contact DJI Support if this error persists after restarting</t>
+          <t>Check the USB connection with aircraft</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4-18</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Failed to take off Check the USB connection with aircraft Contact DJI Support if this error persists after restarting .</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point</t>
+          <t>Contact DJI Support if this error persists after restarting</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>10-18</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RTH Altitude is nnn</t>
+          <t>Aircraft is returning to the Home Point</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>7-10</t>
+          <t>0-6</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1187,21 +1187,21 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised Please fly with caution .</t>
+          <t>Aircraft is returning to the Home Point RTH Altitude is nnn You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Weak GPS signal</t>
+          <t>RTH Altitude is nnn</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>7-10</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1221,12 +1221,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Positioning accuracy may be compromised</t>
+          <t>Weak GPS signal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1246,17 +1246,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Weak GPS signal Positioning accuracy may be compromised</t>
+          <t>Positioning accuracy may be compromised</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0-7</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1271,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>May violate local policies and regulations</t>
+          <t>Flight altitude exceeds nnn</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>4-9</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1296,12 +1296,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ensure you have obtained proper airspace authorization</t>
+          <t>May violate local policies and regulations</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>10-16</t>
+          <t>4-9</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1312,21 +1312,21 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error Please check the Compass installation and interference .</t>
+          <t>Flight altitude exceeds nnn May violate local policies and regulations Ensure you have obtained proper airspace authorization .</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Ensure you have obtained proper airspace authorization</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>10-16</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Compass data error</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-4</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1371,17 +1371,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Compass Error Compass data error</t>
+          <t>Compass data error</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>2-4</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1612,26 +1612,26 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected Contact DJI Support for assistance .</t>
+          <t>GPS signal weak Hovering unstable Fly with caution .</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Camera RCAM not connected Image quality affected</t>
+          <t>GPS signal weak</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>Missing</t>
         </is>
       </c>
     </row>
@@ -1646,12 +1646,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GPS signal weak</t>
+          <t>Hovering unstable</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1671,12 +1671,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Hovering unstable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -1687,21 +1687,21 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GPS signal weak Hovering unstable Fly with caution .</t>
+          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Strong wind warning</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Strong wind warning</t>
+          <t>Aircraft unable to fly stably</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -1746,40 +1746,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Aircraft unable to fly stably</t>
+          <t>Lower altitude immediately and manually return to home</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3-7</t>
+          <t>8-15</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
-        <v>19</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Strong wind warning Aircraft unable to fly stably Lower altitude immediately and manually return to home .</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Lower altitude immediately and manually return to home</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>8-15</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
         <is>
           <t>Missing</t>
         </is>
